--- a/data/trans_orig/P78C8_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C8_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D270C37E-6CB3-460D-99FF-5625BF43007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD9A1ED-3B1E-473E-9CC0-C29117F4B5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63E05198-9272-4D5E-9578-526FC42BD7BD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9C105A6C-E9C2-4C8B-961D-3976484423B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="23">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de colegios en 2023 (Tasa respuesta: 0,03%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -83,19 +83,22 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -513,8 +516,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2680362F-20FC-4E29-ABEB-DF8CED2D0714}">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A787050-57A4-4D4B-9F21-5966D68C99FC}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -647,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2243</v>
+        <v>1606</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -662,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2243</v>
+        <v>1606</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -696,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>2243</v>
+        <v>1606</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>14</v>
@@ -711,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>2243</v>
+        <v>1606</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>14</v>
@@ -839,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>881</v>
+        <v>741</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>12</v>
@@ -854,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>881</v>
+        <v>741</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>12</v>
@@ -888,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>881</v>
+        <v>741</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -903,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>881</v>
+        <v>741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>14</v>
@@ -1123,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>640</v>
+        <v>549</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>12</v>
@@ -1138,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>640</v>
+        <v>549</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>12</v>
@@ -1172,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>640</v>
+        <v>549</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>14</v>
@@ -1187,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>640</v>
+        <v>549</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>14</v>
@@ -1201,7 +1204,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1220,34 +1223,30 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3764</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3764</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1269,48 +1268,145 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="7">
-        <v>3764</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="7">
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="N17" s="7">
-        <v>3764</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="I18" s="7">
+        <v>2897</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="L18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2897</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2897</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2897</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
